--- a/database/httpsthegeopoliticscom.xlsx
+++ b/database/httpsthegeopoliticscom.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B159"/>
+  <dimension ref="A1:B171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2325,6 +2325,150 @@
         </is>
       </c>
     </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/ali-khameneis-succession-within-the-iranian-political-framework/</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Ali Khamenei’s Succession Within the Iranian Political Framework</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/author/alancallow/</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Alan Callow</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/author/dnyanashrikulkarni/</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Dnyanashri Kulkarni</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/author/sebastiankopec/</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Sebastian Kopec</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/author/yusakuyoshikawa/</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Yusaku Yoshikawa</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/cold-case-of-nanjing-tragedy/</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Cold Case of Nanjing Tragedy</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/combatting-illiberalism-in-europe-reining-in-far-right-political-elites/</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>img alt="European union flag" class="entry-thumb td-animation-stack-type0-1" data-img-url="https://thegeopolitics.com/wp-content/uploads/2021/12/European-Union-Flag-waving-100x70.jpg" data-type="image_tag" height="70" src="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAGQAAABGAQMAAAAASKMqAAAAA1BMVEWurq51dlI4AAAAAXRSTlMmkutdmwAAABBJREFUKM9jGAWjYBQMKwAAA9QAAQWBn6cAAAAASUVORK5CYII=" title="Combatting Illiberalism in Europe: Reining in Far-Right Political Elites" width="100"/</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/iran-a-pivotal-component-of-important-connectivity-initiatives/</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>img alt="Ayatollah Khamenei" class="entry-thumb td-animation-stack-type0-1" data-img-url="https://thegeopolitics.com/wp-content/uploads/2021/12/Ayatollah-Khameini-324x235.jpg" data-type="image_tag" height="235" src="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAUQAAADrAQMAAAArGX0KAAAAA1BMVEWurq51dlI4AAAAAXRSTlMmkutdmwAAACBJREFUaN7twTEBAAAAwiD7pzbEXmAAAAAAAAAAAACQHSaOAAGSp1GBAAAAAElFTkSuQmCC" title="Iran: A Pivotal Component of Important Connectivity Initiatives" width="324"/</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/is-japan-hospitable-to-foreign-workers-sustaining-the-countrys-basic-industry/</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Is Japan Hospitable to Foreign Workers Sustaining the Country’s Basic Industry?</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/java-to-borneo-developmental-or-a-strategic-move/</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>img alt="Borneo on the world map" class="entry-thumb td-animation-stack-type0-1" data-img-url="https://thegeopolitics.com/wp-content/uploads/2021/12/Where-is-Borneo-on-the-world-map-100x70.jpg" data-type="image_tag" height="70" src="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAGQAAABGAQMAAAAASKMqAAAAA1BMVEWurq51dlI4AAAAAXRSTlMmkutdmwAAABBJREFUKM9jGAWjYBQMKwAAA9QAAQWBn6cAAAAASUVORK5CYII=" title="Java to Borneo: Developmental or a Strategic Move?" width="100"/</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/the-importance-of-cultural-competence-in-healthcare/</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>img alt="blood pressure" class="entry-thumb td-animation-stack-type0-1" data-img-url="https://thegeopolitics.com/wp-content/uploads/2021/12/blood-pressure-324x235.png" data-type="image_tag" height="235" src="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAUQAAADrAQMAAAArGX0KAAAAA1BMVEWurq51dlI4AAAAAXRSTlMmkutdmwAAACBJREFUaN7twTEBAAAAwiD7pzbEXmAAAAAAAAAAAACQHSaOAAGSp1GBAAAAAElFTkSuQmCC" title="The Importance of Cultural Competence in Healthcare" width="324"/</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/uae-us-ties-and-the-china-factor/</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>img alt="UAE Flag waving" class="entry-thumb td-animation-stack-type0-1" data-img-url="https://thegeopolitics.com/wp-content/uploads/2021/12/UAE-Flag-324x235.jpg" data-type="image_tag" height="235" src="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAUQAAADrAQMAAAArGX0KAAAAA1BMVEWurq51dlI4AAAAAXRSTlMmkutdmwAAACBJREFUaN7twTEBAAAAwiD7pzbEXmAAAAAAAAAAAACQHSaOAAGSp1GBAAAAAElFTkSuQmCC" title="UAE-US ties and the China Factor" width="324"/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database/httpsthegeopoliticscom.xlsx
+++ b/database/httpsthegeopoliticscom.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B171"/>
+  <dimension ref="A1:B229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2469,6 +2469,702 @@
         </is>
       </c>
     </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>https://instagram.com/https://www.instagram.com/thegeopolitics/#</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Follow</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/a-year-after-the-coup-myanmar-mired-in-conflict-and-catastrophe/#respond</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/a-year-after-the-coup-myanmar-mired-in-conflict-and-catastrophe/</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>A Year After the Coup, Myanmar Mired in Conflict and Catastrophe</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/afghanistan-and-the-road-ahead/#respond</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/afghanistan-and-the-road-ahead/</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Afghanistan and the Road Ahead</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/author/ajaykaruvally/</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Ajay P. Karuvally</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/author/dimitrissymeonidis/</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Dimitris Symeonidis</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/author/hassanahmedshovon/</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Hassan Ahmed Shovon</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/author/kyawmin/</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Kyaw Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/author/niranjanshankar/</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Niranjan Shankar</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/author/shaikhabdurrahman/</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Shaikh Abdur Rahman</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/balancing-quad-china-why-bandwagoning-and-hedging-are-unviable-for-bangladesh/#respond</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/balancing-quad-china-why-bandwagoning-and-hedging-are-unviable-for-bangladesh/</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Balancing Quad-China: Why Bandwagoning and Hedging are Unviable for Bangladesh</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/bangladeshs-response-to-the-us-sanctions-matured-or-imprudent/#respond</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/bangladeshs-response-to-the-us-sanctions-matured-or-imprudent/</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Bangladesh’s Response to the US Sanctions: Matured or Imprudent?</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/between-the-devil-and-the-deep-blue-sea-bidens-north-korea-policy/</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Between the Devil and the Deep Blue Sea: Biden’s North Korea Policy</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/chinas-economy-must-still-naviagte-challenges/</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>China’s Economy Must Still Naviagte Challenges</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/chinas-maneuvers-in-the-indian-ocean-region-could-challenge-the-existing-institutional-mechanism/</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>China’s Maneuvers in the Indian Ocean Region Could Challenge the Existing Institutional Mechanism</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/expectations-from-the-external-affairs-ministers-visit-to-australia-and-the-philippines/#respond</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/expectations-from-the-external-affairs-ministers-visit-to-australia-and-the-philippines/</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Expectations from the External Affairs Minister’s Visit to Australia and the Philippines</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/from-ukraine-to-kazakhstan-the-sino-russia-alliance-isnt-as-stable/</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>From Ukraine to Kazakhstan, the Sino-Russia Alliance Isn’t As Stable</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/intensifying-pressure-on-myanmars-military-can-restore-democracy/#respond</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/intensifying-pressure-on-myanmars-military-can-restore-democracy/</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Intensifying Pressure on Myanmar’s Military Can Restore Democracy</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/line-can-protect-users-by-confirming-messages-sent-by-cambodias-hun-sen/#respond</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/line-can-protect-users-by-confirming-messages-sent-by-cambodias-hun-sen/</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>LINE Can Protect Users by Confirming Messages Sent by Cambodia’s Hun Sen</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/poisoned-springs-afghan-opium-and-south-asias-looming-crisis/#respond</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/poisoned-springs-afghan-opium-and-south-asias-looming-crisis/</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Poisoned Springs: Afghan Opium and South Asia’s Looming Crisis</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/putins-endgame-for-ukraine-integration-into-the-union-state/#respond</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/putins-endgame-for-ukraine-integration-into-the-union-state/</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Putin’s Endgame for Ukraine: Integration Into the Union State</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/ray-of-hope-from-paris-for-victims-of-political-violence-in-cambodia/#respond</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/ray-of-hope-from-paris-for-victims-of-political-violence-in-cambodia/</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Ray of Hope From Paris for Victims of Political Violence in Cambodia</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/receding-democracy-in-hong-kong-who-is-to-be-blamed/</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Receding Democracy in Hong Kong, Who Is To Be Blamed</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/revisiting-misperceptions-the-1962-indo-china-war/#respond</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/revisiting-misperceptions-the-1962-indo-china-war/</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Revisiting Misperceptions: The 1962 Indo-China War</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/russias-south-asia-policy-in-the-changing-geopolitical-architecture/</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Russia’s South Asia Policy in the Changing Geopolitical Architecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/the-downward-slide-in-australia-china-ties/</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>The Downward Slide in Australia-China Ties</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/the-friend-between-the-foes-china-saudi-arabia-and-iran/</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>The Friend Between the Foes: China, Saudi Arabia and Iran</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/the-geopolitics-of-ukraines-grid-interconnection-dreams-amidst-the-war-what-to-look-out-for/#respond</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/the-geopolitics-of-ukraines-grid-interconnection-dreams-amidst-the-war-what-to-look-out-for/</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>The Geopolitics of Ukraine’s Grid Interconnection Dreams Amidst the War: What to Look out for</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/the-resistance-front-trf-and-its-threat-to-india-in-kashmir/#respond</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/the-resistance-front-trf-and-its-threat-to-india-in-kashmir/</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>The Resistance Front (TRF) And Its Threat to India in Kashmir</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/the-upside-of-taliban-recognition/#respond</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/the-upside-of-taliban-recognition/</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>The Upside of Taliban Recognition</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/the-weakness-of-the-strongest-institution-south-koreas-presidential-system/</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>The Weakness of the Strongest Institution: South Korea’s Presidential System</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/the-west-is-winning-the-information-war/#respond</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/the-west-is-winning-the-information-war/</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>The West Is Winning the Information War</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/tunisias-arab-winter/</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Tunisia’s Arab Winter</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/ukraine-crisis-indias-hour-of-reckoning-to-deal-with-external-challenges-to-national-security/#respond</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/ukraine-crisis-indias-hour-of-reckoning-to-deal-with-external-challenges-to-national-security/</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Ukraine Crisis: India’s Hour of Reckoning to Deal With External Challenges to National Security</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/upswing-in-us-qatar-ties-under-biden/</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Upswing in US-Qatar ties Under Biden</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/us-russia-iran-triangle-and-the-changing-world-order/</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>US-Russia-Iran Triangle and the Changing World Order</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/will-the-tatmadaw-able-to-maintain-the-status-quo/#respond</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/will-the-tatmadaw-able-to-maintain-the-status-quo/</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Will the Tatmadaw Be Able to Maintain the Status Quo?</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>https://twitter.com/@GeopoliticsMag</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Follow</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>https://twitter.com/geopoliticsmag</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Twitter</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>https://web.facebook.com/thegeopolitics/</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/https://web.facebook.com/thegeopolitics/</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Like</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/company/14418594</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Linkedin</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database/httpsthegeopoliticscom.xlsx
+++ b/database/httpsthegeopoliticscom.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B229"/>
+  <dimension ref="A1:B250"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3165,6 +3165,258 @@
         </is>
       </c>
     </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/advancing-african-geostrategy-from-a-global-perspective-through-geospatial-intelligence/</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Advancing African Geostrategy From a Global Perspective Through Geospatial Intelligence</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/author/brianelmore/</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Brian Elmore</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/author/manuelntumba/</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Manuel Ntumba</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/author/shreyasinghkasana/</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Shreya Singh Kasana</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/author/shrinivasdharmadhikari/</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Shrinivas Dharmadhikari</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/author/vidheemakwana/</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Vidhee Makwana</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/cambodia-peace-treaty-shows-how-to-give-peace-a-chance-in-ukraine/</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Cambodia Peace Treaty Shows How to Give Peace a Chance in Ukraine</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/india-pakistan-trade-the-need-for-an-innovative-approach/#respond</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/india-pakistan-trade-the-need-for-an-innovative-approach/</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>India-Pakistan Trade: The Need for an Innovative Approach</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/is-president-putin-a-rational-actor/</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Is President Putin a Rational Actor?</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/memory-war-russia-and-ukraine/#respond</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/memory-war-russia-and-ukraine/</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Memory War: Russia and Ukraine</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/myanmar-deserves-our-support-too/#respond</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/myanmar-deserves-our-support-too/</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Myanmar Deserves Our Support Too</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/overcoming-its-jinxed-geography-russias-catalyst-for-the-ukraine-war/</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Overcoming Its Jinxed Geography: Russia’s Catalyst for the Ukraine War</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/russia-iran-relations-in-the-aftermath-of-the-ukraine-crisis/</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Russia-Iran Relations in the Aftermath of the Ukraine Crisis?</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/saudi-arabias-vision-2030-a-catalyst-for-realizing-womens-rights/</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Saudi Arabia’s Vision 2030: A Catalyst for Realizing Women’s Rights</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/the-fallout-of-the-russia-ukraine-conflict-on-central-asia-implications-for-india/#respond</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/the-fallout-of-the-russia-ukraine-conflict-on-central-asia-implications-for-india/</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>The Fallout of the Russia-Ukraine Conflict on Central Asia: Implications for India</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/us-bangladesh-partnership-dialogue-what-to-expect/#respond</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/us-bangladesh-partnership-dialogue-what-to-expect/</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>US-Bangladesh Partnership Dialogue: What to Expect?</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database/httpsthegeopoliticscom.xlsx
+++ b/database/httpsthegeopoliticscom.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B250"/>
+  <dimension ref="A1:B343"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3417,6 +3417,1118 @@
         </is>
       </c>
     </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/href="#"</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Forgot your password?</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/href="https://instagram.com/https://www.instagram.com/thegeopolitics/#"</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Follow</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/href="https://thegeopolitics.com/"</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>The Geopolitics</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/href="https://thegeopolitics.com/a-china-angle-on-ukraine/"</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>A China Angle on Ukraine</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/href="https://thegeopolitics.com/a-realist-perspective-russia-and-ukraine/"</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>A Realist Perspective: Russia and Ukraine</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/href="https://thegeopolitics.com/a-year-after-the-coup-myanmar-mired-in-conflict-and-catastrophe/"</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>A Year After the Coup, Myanmar Mired in Conflict and Catastrophe</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/href="https://thegeopolitics.com/a-year-after-the-coup-myanmar-mired-in-conflict-and-catastrophe/#respond"</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/href="https://thegeopolitics.com/about-us/"</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>About Us</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/href="https://thegeopolitics.com/advancing-african-geostrategy-from-a-global-perspective-through-geospatial-intelligence/"</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Advancing African Geostrategy From a Global Perspective Through Geospatial Intelligence</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/href="https://thegeopolitics.com/archives/"</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>Archives</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/href="https://thegeopolitics.com/archives/regions/"</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>Regions</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/href="https://thegeopolitics.com/archives/regions/americas/"</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>Americas</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/href="https://thegeopolitics.com/archives/regions/asia-pacific/"</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>Asia-Pacific</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/href="https://thegeopolitics.com/archives/regions/europe/"</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/href="https://thegeopolitics.com/archives/regions/middle-east/"</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>Middle East and Africa</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/href="https://thegeopolitics.com/archives/regions/south-asia/"</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>South Asia</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/href="https://thegeopolitics.com/archives/regions/southeast-asia/"</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>Southeast Asia</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/href="https://thegeopolitics.com/archives/topics/"</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>Topics</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/href="https://thegeopolitics.com/archives/topics/defense-and-technology/"</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>Security and Defense</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/href="https://thegeopolitics.com/archives/topics/economics/"</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>Economy</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/href="https://thegeopolitics.com/archives/topics/politics-and-security/"</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>Politics</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/href="https://thegeopolitics.com/author/abhinavmehrotra/"</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>Abhinav Mehrotra</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/href="https://thegeopolitics.com/author/brianelmore/"</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>Brian Elmore</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/href="https://thegeopolitics.com/author/cherryhitkari/"</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>Cherry Hitkari</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/href="https://thegeopolitics.com/author/eveleconomakis/"</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>Evel Economakis</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/href="https://thegeopolitics.com/author/gaganhitkari/"</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>Gagan Hitkari</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/href="https://thegeopolitics.com/author/hassanahmedshovon/"</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>Hassan Ahmed Shovon</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/href="https://thegeopolitics.com/author/johnclarke/"</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>John Clarke</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/href="https://thegeopolitics.com/author/kyawmin/"</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>Kyaw Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/href="https://thegeopolitics.com/author/lindaschlegel/"</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>Linda Schlegel</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/href="https://thegeopolitics.com/author/manuelntumba/"</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>Manuel Ntumba</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/href="https://thegeopolitics.com/author/matthewmackay/"</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>Matthew MacKay</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/href="https://thegeopolitics.com/author/nihalkothavale/"</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>Nihal Kothavale</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/href="https://thegeopolitics.com/author/samrainsy/"</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>Sam Rainsy</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/href="https://thegeopolitics.com/author/shaikhabdurrahman/"</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>Shaikh Abdur Rahman</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/href="https://thegeopolitics.com/author/tridivesh/"</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>Tridivesh Singh Maini</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/href="https://thegeopolitics.com/can-india-take-the-lead-in-redefining-the-role-of-the-bimstec/"</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>Can India Take the Lead in Redefining the Role of the BIMSTEC?</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/href="https://thegeopolitics.com/can-india-take-the-lead-in-redefining-the-role-of-the-bimstec/#respond"</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/href="https://thegeopolitics.com/contact/"</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>Contact Us</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/href="https://thegeopolitics.com/contributor-guidelines/"</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>Contributor Guidelines</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/href="https://thegeopolitics.com/from-ukraine-to-kazakhstan-the-sino-russia-alliance-isnt-as-stable/"</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>From Ukraine to Kazakhstan, the Sino-Russia Alliance Isn’t As Stable</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/href="https://thegeopolitics.com/germanys-revolutionary-policy-shift-post-merkel-era/"</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>Germany’s Revolutionary Policy Shift: Post-Merkel Era</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/href="https://thegeopolitics.com/india-pakistan-trade-the-need-for-an-innovative-approach/"</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>India-Pakistan Trade: The Need for an Innovative Approach</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/href="https://thegeopolitics.com/india-pakistan-trade-the-need-for-an-innovative-approach/#respond"</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/href="https://thegeopolitics.com/intensifying-pressure-on-myanmars-military-can-restore-democracy/"</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>Intensifying Pressure on Myanmar’s Military Can Restore Democracy</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/href="https://thegeopolitics.com/intensifying-pressure-on-myanmars-military-can-restore-democracy/#respond"</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/href="https://thegeopolitics.com/interpretation-of-quad-and-aukus-in-the-indo-pacific-region/"</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>Interpretation of QUAD and AUKUS in Indo-Pacific Region</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/href="https://thegeopolitics.com/is-privatization-good-for-india/"</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>Is Privatization Good for India?</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/href="https://thegeopolitics.com/is-privatization-good-for-india/#respond"</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/href="https://thegeopolitics.com/israel-palestine-conflict-need-for-a-special-tribunal-and-icc/"</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>Israel-Palestine Conflict: Need for a Special Tribunal and ICC</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/href="https://thegeopolitics.com/line-can-protect-users-by-confirming-messages-sent-by-cambodias-hun-sen/"</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>LINE Can Protect Users by Confirming Messages Sent by Cambodia’s Hun Sen</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/href="https://thegeopolitics.com/mind-the-gap-what-we-do-and-dont-know-about-gaming-and-radicalization/"</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>Mind the Gap: What We Do and Don’t Know About Gaming and Radicalization</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/href="https://thegeopolitics.com/mind-the-gap-what-we-do-and-dont-know-about-gaming-and-radicalization/#respond"</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/href="https://thegeopolitics.com/myanmar-deserves-our-support-too/"</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>Myanmar Deserves Our Support Too</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/href="https://thegeopolitics.com/myanmar-deserves-our-support-too/#respond"</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/href="https://thegeopolitics.com/privacy-policy/"</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>Privacy Policy</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/href="https://thegeopolitics.com/ray-of-hope-from-paris-for-victims-of-political-violence-in-cambodia/"</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>Ray of Hope From Paris for Victims of Political Violence in Cambodia</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/href="https://thegeopolitics.com/ray-of-hope-from-paris-for-victims-of-political-violence-in-cambodia/#respond"</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/href="https://thegeopolitics.com/russian-embarrassment-in-ukraine-lessons-for-china-and-next-steps/"</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>Russian Embarrassment in Ukraine – Lessons for China and Next Steps</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/href="https://thegeopolitics.com/russian-embarrassment-in-ukraine-lessons-for-china-and-next-steps/#respond"</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/href="https://thegeopolitics.com/russo-ukrainian-war-of-2022-lessons-for-the-philippines/"</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>Russo-Ukrainian War of 2022: Lessons for the Philippines</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/href="https://thegeopolitics.com/shifting-alliances-china-saudi-arabia-and-the-united-states/"</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>Shifting Alliances: China, Saudi Arabia and the United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/href="https://thegeopolitics.com/speeding-development-the-mallima-movement-and-north-koreas-political-economy/"</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>“Speeding” Development: The Mallima Movement and North Korea’s Political Economy</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/href="https://thegeopolitics.com/ten-years-on-we-are-still-the-99/"</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>Ten Years On, We Are Still the 99%</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/href="https://thegeopolitics.com/terms-and-conditions/"</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>Terms and Conditions</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/href="https://thegeopolitics.com/terrorism/"</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>Terrorism</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/href="https://thegeopolitics.com/the-8th-bangladesh-u-s-partnership-dialogue-a-mere-formality-amid-big-expectations/"</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>The 8th Bangladesh-U.S. Partnership Dialogue – A Mere Formality Amid Big Expectations</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/href="https://thegeopolitics.com/the-8th-bangladesh-u-s-partnership-dialogue-a-mere-formality-amid-big-expectations/#respond"</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/href="https://thegeopolitics.com/the-fallout-of-the-russia-ukraine-conflict-on-central-asia-implications-for-india/"</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>The Fallout of the Russia-Ukraine Conflict on Central Asia: Implications for India</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/href="https://thegeopolitics.com/the-fallout-of-the-russia-ukraine-conflict-on-central-asia-implications-for-india/#respond"</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/href="https://thegeopolitics.com/the-globality-of-inflation-in-a-post-covid-world-and-way-forward-for-bangladesh/"</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>The Globality of Inflation in a Post-Covid World and Way Forward for Bangladesh</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/href="https://thegeopolitics.com/the-globality-of-inflation-in-a-post-covid-world-and-way-forward-for-bangladesh/#respond"</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/href="https://thegeopolitics.com/the-rohingya-plight-amid-the-ukraine-crisis-out-of-sight-out-of-mind/"</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>The Rohingya Plight Amid the Ukraine Crisis: Out of Sight, Out of Mind?</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/href="https://thegeopolitics.com/the-rohingya-plight-amid-the-ukraine-crisis-out-of-sight-out-of-mind/#respond"</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/href="https://thegeopolitics.com/the-weakness-of-the-strongest-institution-south-koreas-presidential-system/"</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>The Weakness of the Strongest Institution: South Korea’s Presidential System</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/href="https://thegeopolitics.com/uae-syria-ties-the-economic-and-geopolitical-dimensions/"</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>UAE-Syria Ties: The Economic and Geopolitical Dimensions</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/href="https://thegeopolitics.com/ukraine-crisis-indias-hour-of-reckoning-to-deal-with-external-challenges-to-national-security/"</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>Ukraine Crisis: India’s Hour of Reckoning to Deal With External Challenges to National Security</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/href="https://thegeopolitics.com/ukraine-crisis-indias-hour-of-reckoning-to-deal-with-external-challenges-to-national-security/#respond"</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/href="https://thegeopolitics.com/us-bangladesh-partnership-dialogue-what-to-expect/"</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>US-Bangladesh Partnership Dialogue: What to Expect?</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/href="https://thegeopolitics.com/us-bangladesh-partnership-dialogue-what-to-expect/#respond"</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/href="https://thegeopolitics.com/war-in-ukraine-what-lies-ahead/"</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>War in Ukraine: What Lies Ahead</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/href="https://thegeopolitics.com/whither-sino-us-relations-key-takeaways-from-the-virtual-summit/"</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>Whither Sino-US Relations?: Key Takeaways From the Virtual Summit</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/href="https://thegeopolitics.com/why-transactionalism-will-dictate-the-us-pakistan-relationship/"</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>Why Transactionalism Will Dictate the US-Pakistan Relationship</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/href="https://thegeopolitics.com/will-taiwan-be-the-next-ukraine/"</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>Will Taiwan Be the Next Ukraine?</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/href="https://thegeopolitics.com/will-the-tatmadaw-able-to-maintain-the-status-quo/"</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>Will the Tatmadaw Be Able to Maintain the Status Quo?</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/href="https://thegeopolitics.com/will-the-tatmadaw-able-to-maintain-the-status-quo/#respond"</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/href="https://twitter.com/@GeopoliticsMag"</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>Follow</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/href="https://twitter.com/GeopoliticsMag"</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr"/>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/href="https://twitter.com/geopoliticsmag"</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>Twitter</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/href="https://web.facebook.com/thegeopolitics/"</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/href="https://www.facebook.com/https://web.facebook.com/thegeopolitics/"</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>Like</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/href="https://www.instagram.com/thegeopolitics/"</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/href="https://www.linkedin.com/company/14418594"</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>Linkedin</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database/httpsthegeopoliticscom.xlsx
+++ b/database/httpsthegeopoliticscom.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B343"/>
+  <dimension ref="A1:B396"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4529,6 +4529,642 @@
         </is>
       </c>
     </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/a-battle-for-the-rules-based-order/</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>A Battle for the ‘Rules-Based Order’</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/a-united-nations-security-council-washout-indias-unraveling-non-alignment-foreign-policy/#respond</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/a-united-nations-security-council-washout-indias-unraveling-non-alignment-foreign-policy/</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>A United Nations Security Council Washout: India’s Unraveling Non-Alignment Foreign Policy</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/author/abhinavmehrotra/</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>Abhinav Mehrotra</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/author/ajisaidmiqbalfajri/</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>Aji Said M Iqbal Fajri</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/author/alexmazzone/</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>Alex Mazzone</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/author/andrewkraskewicz/</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>Andrew Kraskewicz</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/author/bhavdeepmodi/</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>Bhavdeep Modi</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/author/danielmckay/</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>Daniel McKay</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/author/davidkobylanski/</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>David Kobylanski</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/author/hagosgebreamlak/</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>Hagos Gebreamlak</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/author/matteopes/</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>Matteo Pes</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/author/syedzainabbasrizvi/</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>Syed Zain Abbas Rizvi</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/changing-course-yoon-suk-yeol-and-the-new-north-korea-policy/</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>Changing Course: Yoon Suk-yeol and the New North Korea Policy</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/changing-geopolitical-landscape-of-the-middle-east-and-its-implications/</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>Changing Geopolitical Landscape of the Middle East and Its Implications</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/chinas-stringent-lockdowns-the-economic-ramifications/</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>China’s Stringent Lockdowns: The Economic Ramifications</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/comparative-analysis-of-political-corruption-in-japan-and-south-korea/</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>Comparative Analysis of Political Corruption in Japan and South Korea</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/defense/</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>Defense</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/despite-russias-warns-finland-and-sweden-will-likely-join-nato/</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>Despite Russia’s Warning, Finland and Sweden Will Likely Join NATO</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/dug-into-a-ukrainian-hole/</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>Dug Into A Ukrainian Hole</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/free-market-global-economy-and-indias-socialist-reluctance/#respond</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/free-market-global-economy-and-indias-socialist-reluctance/</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>Free-Market Global Economy and India’s Socialist Reluctance</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/from-moons-engagement-to-yoons-harsh-rhetoric-a-new-era-on-korean-peninsula/</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>From Moon’s Engagement to Yoon’s Harsh Rhetoric: A New Era on Korean Peninsula</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/how-does-historical-memory-impact-chinas-relationship-with-japan/</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>How Does Historical Memory Impact China’s Relationship With Japan?</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/how-neutrality-over-ukrainian-crisis-sums-up-for-india/#respond</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/how-neutrality-over-ukrainian-crisis-sums-up-for-india/</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>How Neutrality Over Ukrainian Crisis Sums up for India?</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/how-the-geopolitics-incurred-in-the-philippines-energy-security/#respond</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/how-the-geopolitics-incurred-in-the-philippines-energy-security/</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>How The Geopolitics Incurred in the Philippines’ Energy Security</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/indias-neighbourhood-policy-the-relevance-of-para-diplomacy/#respond</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/indias-neighbourhood-policy-the-relevance-of-para-diplomacy/</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>India’s Neighbourhood Policy: The Relevance of Para Diplomacy</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/israel-palestine-conflict-need-for-a-special-tribunal-and-icc/</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>Israel-Palestine Conflict: Need for a Special Tribunal and ICC</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/misfiring-countermeasures-and-the-impact-of-declining-deterrence/#respond</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/misfiring-countermeasures-and-the-impact-of-declining-deterrence/</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>Misfiring Countermeasures and the Impact of Declining Deterrence</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/pakistans-economic-crisis-key-takeaways-for-other-developing-countries/#respond</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/pakistans-economic-crisis-key-takeaways-for-other-developing-countries/</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>Pakistan’s Economic Crisis: Key Takeaways for Other Developing Countries</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/super-carrier-or-super-barrier-how-an-outdated-obsession-is-limiting-americas-naval-capacity/</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>Supercarrier or Super-Barrier: How an Outdated Obsession is Limiting America’s Naval Capacity</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/the-diplomacy-deterrence-complex-in-the-us-defense-policy-in-the-middle-east/#respond</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/the-diplomacy-deterrence-complex-in-the-us-defense-policy-in-the-middle-east/</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>The Diplomacy-Deterrence Complex in the US Defense Policy in the Middle East</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/the-nuclear-shadow-us-nuclear-policy-in-the-wake-of-ukraine-crisis/</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>The Nuclear Shadow: US Nuclear Policy in the Wake of Ukraine Crisis</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/the-raging-crypto-mania-in-pakistan/#respond</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/the-raging-crypto-mania-in-pakistan/</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>The Raging Crypto Mania in Pakistan</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/the-russian-invasion-could-cause-a-new-arab-spring/</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>The Russian Invasion Could Cause a New Arab Spring</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/the-us-bangladesh-security-dialogue-how-successful-it-was/#respond</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/the-us-bangladesh-security-dialogue-how-successful-it-was/</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>The US-Bangladesh Security Dialogue: How Successful It Was?</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/the-us-should-mediate-the-ukraine-war-and-focus-on-indo-pacific/</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>The US Should Mediate the Ukraine War and Focus on Indo-Pacific</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/to-arrive-at-the-same-conclusions-with-new-delhi-berlin-must-shed-its-reluctance-widen-its-horizon/</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>To Arrive at the Same Conclusions with New Delhi, Berlin Must Shed Its Reluctance &amp;amp; Widen Its Horizon</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/us-asean-ties-and-the-china-factor/#respond</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/us-asean-ties-and-the-china-factor/</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>US-ASEAN Ties and the China Factor</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/vietnam-veterans-speak-out-on-ukraine/</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>Vietnam Veterans Speak out on Ukraine</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/what-are-the-fundamental-flaws-of-the-us-human-rights-report-on-bangladesh/#respond</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/what-are-the-fundamental-flaws-of-the-us-human-rights-report-on-bangladesh/</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>What are the Fundamental Flaws of the US Human Rights Report on Bangladesh?</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/why-myanmar-should-have-friendship-and-neighbourhood-policy-towards-bangladesh/#respond</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>https://thegeopolitics.com/why-myanmar-should-have-friendship-and-neighbourhood-policy-towards-bangladesh/</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>Why Myanmar Should Have Friendship and Neighbourhood Policy Towards Bangladesh?</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
